--- a/proveedor.xlsx
+++ b/proveedor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,19 +31,16 @@
     <t>CorreoElectronico</t>
   </si>
   <si>
-    <t>Distribuidora Isleña de Alimentos, S.A.</t>
-  </si>
-  <si>
-    <t>3101109180</t>
-  </si>
-  <si>
-    <t>Distribuidora Isleña de Alimentos S.A.</t>
-  </si>
-  <si>
-    <t>22930609</t>
-  </si>
-  <si>
-    <t>emisionfacturas@di.cr</t>
+    <t>EMSAR GLOBAL DE CENTRO AMERICA S.A.</t>
+  </si>
+  <si>
+    <t>3101775072</t>
+  </si>
+  <si>
+    <t>40301229</t>
+  </si>
+  <si>
+    <t>facelectronicaemsar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -432,13 +429,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/proveedor.xlsx
+++ b/proveedor.xlsx
@@ -31,16 +31,16 @@
     <t>CorreoElectronico</t>
   </si>
   <si>
-    <t>EMSAR GLOBAL DE CENTRO AMERICA S.A.</t>
-  </si>
-  <si>
-    <t>3101775072</t>
-  </si>
-  <si>
-    <t>40301229</t>
-  </si>
-  <si>
-    <t>facelectronicaemsar@gmail.com</t>
+    <t>Mayca Distribuidores. S.A.</t>
+  </si>
+  <si>
+    <t>3101172267</t>
+  </si>
+  <si>
+    <t>22090505</t>
+  </si>
+  <si>
+    <t>cuentasxcobrar@mayca.com</t>
   </si>
 </sst>
 </file>

--- a/proveedor.xlsx
+++ b/proveedor.xlsx
@@ -31,16 +31,16 @@
     <t>CorreoElectronico</t>
   </si>
   <si>
-    <t>Mayca Distribuidores. S.A.</t>
-  </si>
-  <si>
-    <t>3101172267</t>
-  </si>
-  <si>
-    <t>22090505</t>
-  </si>
-  <si>
-    <t>cuentasxcobrar@mayca.com</t>
+    <t>EMPAQUES BELEN S.A.</t>
+  </si>
+  <si>
+    <t>3101135332</t>
+  </si>
+  <si>
+    <t>24385119</t>
+  </si>
+  <si>
+    <t>pedidos@empaquesbelen.com</t>
   </si>
 </sst>
 </file>
